--- a/docs/PPG/Dados Cadastrais.xlsx
+++ b/docs/PPG/Dados Cadastrais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/Sucupira/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1BA56F8-9E39-E34A-A074-76CC7898F59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBBC212-BABE-2F41-9DC2-5FFF34583200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="1180" windowWidth="23180" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>desenvolvimentolocal@unisuam.edu.br</t>
   </si>
   <si>
-    <t>DESENVOLVIMENTO SUSTENTÁVEL E TRABALHO.</t>
-  </si>
-  <si>
     <t>01/01/2006</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>Créditos em Atividades Complementares</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO SUSTENTÁVEL E TRABALHO</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -495,67 +495,46 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -577,7 +556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -865,7 +844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1044,19 +1023,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1064,7 +1043,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,13 +1095,13 @@
     </row>
     <row r="2" spans="1:4" ht="320" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1145,62 +1124,62 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1235,10 +1214,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>26</v>
@@ -1246,10 +1225,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>27</v>
@@ -1268,42 +1247,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="1" width="56.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="23">
         <v>8</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>20</v>
       </c>
     </row>

--- a/docs/PPG/Dados Cadastrais.xlsx
+++ b/docs/PPG/Dados Cadastrais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30C514-269B-6F49-AB85-8EAEA0ABCC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB42EE-6860-7B45-A888-4587E9CD14F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="1180" windowWidth="23180" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="AC" sheetId="3" r:id="rId3"/>
     <sheet name="LP" sheetId="5" r:id="rId4"/>
     <sheet name="Cursos" sheetId="4" r:id="rId5"/>
-    <sheet name="Créditos" sheetId="6" r:id="rId6"/>
+    <sheet name="Egressos" sheetId="7" r:id="rId6"/>
+    <sheet name="Créditos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -266,6 +267,16 @@
   </si>
   <si>
     <t>Formar agentes capazes de identificar problemas da sociedade, na busca de soluções para os processos de desenvolvimento, sobretudo para as questões socioambientais, por meio de inovações em uma ou mais áreas, como tecnológica, social, econômica, industrial, política e educacional, com estímulo ao trabalho e geração de renda da população local, guiados pelos princípios da sustentabilidade e inclusão social, estabelecidos na Agenda 2030 da ONU.</t>
+  </si>
+  <si>
+    <t>- Promover formas de modernização de processos produtivos com aplicação de novas tecnologias, visando soluções para problemas complexos, tendo em vista o desenvolvimento local pelo trabalho, geração de renda e preservação dos recursos naturais.
+- Entender, debater e divulgar as políticas públicas de desenvolvimento sustentável, sugerindo estratégias de emprego destas em favor da sociedade local.
+- Agir como agentes dinamizadores do desenvolvimento, identificando e promovendo o acesso às fontes de financiamentos para ações em áreas prioritárias a fim de propiciar o desenvolvimento local, tanto para a capacitação de pessoal quanto para implantação de programas e projetos de desenvolvimento;
+- Identificar as possibilidades de melhoria da educação/capacitação de acordo com as demandas da sociedade, em consonância com as inovações tecnológicas, bem como das tecnologias sociais voltadas para a preservação do meio ambiente, da economia sustentável e da inserção social;
+- Entender, debater e divulgar as políticas públicas de desenvolvimento sustentável, sugerindo estratégias de emprego destas em favor da sociedade local;
+- Identificar os contextos em que se inserem as ações desenvolvimentistas desde os culturais, inerentes à (s) comunidade (s) envolvida (s), até os externos, pois nas condições contemporâneas de globalização o desenvolvimento local representa também uma forma de integração econômica com o eixo regional, nacional e internacional, que gera e redefine oportunidades e ameaças, exigindo competitividade e especialização; 
+- Estabelecer contatos entre pesquisadores, o mercado de trabalho e a sociedade, a fim de facilitar os mecanismos de transferência de conhecimento e de tecnologias;
+- Por último, mas não menos importante, conhecer as necessidades reais de letramento da comunidade local, habilitando-a para o exercício pleno da cidadania.</t>
   </si>
 </sst>
 </file>
@@ -451,7 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -549,6 +560,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1264,6 +1278,68 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26C8A7E-50EB-4B40-A91C-8FD425132323}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/docs/PPG/Dados Cadastrais.xlsx
+++ b/docs/PPG/Dados Cadastrais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioDL/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-DL/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB42EE-6860-7B45-A888-4587E9CD14F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCC515F-A1BE-EC48-80BB-93D7AAAEE538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1180" windowWidth="23180" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="1180" windowWidth="23180" windowHeight="14380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do programa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AC" sheetId="3" r:id="rId3"/>
     <sheet name="LP" sheetId="5" r:id="rId4"/>
     <sheet name="Cursos" sheetId="4" r:id="rId5"/>
-    <sheet name="Egressos" sheetId="7" r:id="rId6"/>
+    <sheet name="Perfil de Egressos" sheetId="7" r:id="rId6"/>
     <sheet name="Créditos" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Dados do Programa</t>
   </si>
@@ -277,6 +277,9 @@
 - Identificar os contextos em que se inserem as ações desenvolvimentistas desde os culturais, inerentes à (s) comunidade (s) envolvida (s), até os externos, pois nas condições contemporâneas de globalização o desenvolvimento local representa também uma forma de integração econômica com o eixo regional, nacional e internacional, que gera e redefine oportunidades e ameaças, exigindo competitividade e especialização; 
 - Estabelecer contatos entre pesquisadores, o mercado de trabalho e a sociedade, a fim de facilitar os mecanismos de transferência de conhecimento e de tecnologias;
 - Por último, mas não menos importante, conhecer as necessidades reais de letramento da comunidade local, habilitando-a para o exercício pleno da cidadania.</t>
+  </si>
+  <si>
+    <t>Perfil de Egressos</t>
   </si>
 </sst>
 </file>
@@ -584,9 +587,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,7 +627,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -730,7 +733,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,7 +875,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -882,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1281,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26C8A7E-50EB-4B40-A91C-8FD425132323}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1303,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
